--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Guca2b-Gucy2c.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Guca2b-Gucy2c.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -549,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2561116666666667</v>
+        <v>0.4040993333333333</v>
       </c>
       <c r="N2">
-        <v>0.768335</v>
+        <v>1.212298</v>
       </c>
       <c r="O2">
-        <v>0.1060077716175362</v>
+        <v>0.1080113302049822</v>
       </c>
       <c r="P2">
-        <v>0.1060077716175362</v>
+        <v>0.1080113302049822</v>
       </c>
       <c r="Q2">
-        <v>0.01725817002888889</v>
+        <v>0.02723036827644445</v>
       </c>
       <c r="R2">
-        <v>0.15532353026</v>
+        <v>0.245073314488</v>
       </c>
       <c r="S2">
-        <v>0.1060077716175362</v>
+        <v>0.1080113302049822</v>
       </c>
       <c r="T2">
-        <v>0.1060077716175362</v>
+        <v>0.1080113302049822</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -617,90 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.840209</v>
+        <v>3.337168666666667</v>
       </c>
       <c r="N3">
-        <v>5.520626999999999</v>
+        <v>10.011506</v>
       </c>
       <c r="O3">
-        <v>0.7616851584290758</v>
+        <v>0.8919886697950178</v>
       </c>
       <c r="P3">
-        <v>0.7616851584290758</v>
+        <v>0.8919886697950178</v>
       </c>
       <c r="Q3">
-        <v>0.124003096868</v>
+        <v>0.2248762229928889</v>
       </c>
       <c r="R3">
-        <v>1.116027871812</v>
+        <v>2.023886006936</v>
       </c>
       <c r="S3">
-        <v>0.7616851584290758</v>
+        <v>0.8919886697950178</v>
       </c>
       <c r="T3">
-        <v>0.7616851584290758</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G4">
-        <v>0.06738533333333334</v>
-      </c>
-      <c r="H4">
-        <v>0.202156</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M4">
-        <v>0.31965</v>
-      </c>
-      <c r="N4">
-        <v>0.9589500000000001</v>
-      </c>
-      <c r="O4">
-        <v>0.132307069953388</v>
-      </c>
-      <c r="P4">
-        <v>0.132307069953388</v>
-      </c>
-      <c r="Q4">
-        <v>0.0215397218</v>
-      </c>
-      <c r="R4">
-        <v>0.1938574962</v>
-      </c>
-      <c r="S4">
-        <v>0.132307069953388</v>
-      </c>
-      <c r="T4">
-        <v>0.132307069953388</v>
+        <v>0.8919886697950178</v>
       </c>
     </row>
   </sheetData>
